--- a/biology/Biochimie/Isocoumarine/Isocoumarine.xlsx
+++ b/biology/Biochimie/Isocoumarine/Isocoumarine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'isocoumarine (1H-2-benzopyran-1-one ou 3,4-benzo-2-pyrone) est un composé organique isomère de la coumarine. Comme cette dernière, c'est une δ-lactone.
@@ -512,14 +524,16 @@
           <t>Dérivés naturels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Thunberginol A et B
 dihydroisocoumarines
 Hydrangénol
 Phyllodulcine
 Thunberginol C, D, E et G
-la 3-acétyl-3,4-dihydro-5,6-diméthoxy-1H-2-benzopyran-1-one, présente dans l'Huáng bǎi, l'une des cinquante plantes fondamentales de la médecine traditionnelle chinoise[2].</t>
+la 3-acétyl-3,4-dihydro-5,6-diméthoxy-1H-2-benzopyran-1-one, présente dans l'Huáng bǎi, l'une des cinquante plantes fondamentales de la médecine traditionnelle chinoise.</t>
         </is>
       </c>
     </row>
